--- a/generated_output/temp/us-core-encounter.xlsx
+++ b/generated_output/temp/us-core-encounter.xlsx
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -194,7 +194,7 @@
     <t>Encounter.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -210,7 +210,7 @@
     <t>Encounter.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -229,7 +229,7 @@
     <t>Encounter.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -261,7 +261,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -287,7 +287,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -313,7 +313,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -348,7 +348,7 @@
     <t>Encounter.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>Encounter.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -441,7 +441,7 @@
     <t>Encounter.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient"/&gt;</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -511,7 +511,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -526,7 +526,7 @@
     <t>Encounter.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -548,7 +548,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -603,7 +603,7 @@
     <t>Encounter.statusHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -658,7 +658,7 @@
     <t>Encounter.class</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -795,7 +795,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -849,7 +849,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest]]}
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
@@ -934,7 +934,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner)
 </t>
   </si>
   <si>
@@ -959,7 +959,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Appointment]]}
+    <t xml:space="preserve">Reference(Appointment)
 </t>
   </si>
   <si>
@@ -1002,7 +1002,7 @@
     <t>Encounter.length</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration {[]} {[]}
+    <t xml:space="preserve">Duration
 </t>
   </si>
   <si>
@@ -1058,7 +1058,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation]]}
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1093,7 +1093,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Procedure]]}
+    <t xml:space="preserve">Reference(Condition|Procedure)
 </t>
   </si>
   <si>
@@ -1130,7 +1130,7 @@
     <t>Encounter.diagnosis.rank</t>
   </si>
   <si>
-    <t xml:space="preserve">positiveInt {[]} {[]}
+    <t xml:space="preserve">positiveInt
 </t>
   </si>
   <si>
@@ -1146,7 +1146,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Account]]}
+    <t xml:space="preserve">Reference(Account)
 </t>
   </si>
   <si>
@@ -1203,7 +1203,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Location|Organization)
 </t>
   </si>
   <si>
@@ -1387,7 +1387,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-location]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-location)
 </t>
   </si>
   <si>
@@ -1473,7 +1473,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -1544,67 +1544,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
